--- a/Κωδικοι για sms στο 13033.xlsx
+++ b/Κωδικοι για sms στο 13033.xlsx
@@ -11,42 +11,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Γιατρό - Φαρμακειο</t>
-  </si>
-  <si>
-    <t>Super Market</t>
-  </si>
-  <si>
-    <t>Τράπεζα</t>
-  </si>
-  <si>
-    <t>Τελετή - Παιδια στο σχολειο</t>
-  </si>
-  <si>
-    <t>Βοήθεια</t>
-  </si>
-  <si>
-    <t>Ασκηση</t>
-  </si>
-  <si>
-    <t>Εκκλησία</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Ιατρόν - Φαρμακεία</t>
+  </si>
+  <si>
+    <t>Αγορά τροφίμων</t>
+  </si>
+  <si>
+    <t>Τράπεζα Χρημάτων</t>
+  </si>
+  <si>
+    <t>Βοήθεια κατ' οίκον</t>
+  </si>
+  <si>
+    <t>Τελετή - Τέκνα στο γυμνάσιο</t>
+  </si>
+  <si>
+    <t>Ασκηση - Περίπατος με οικόσιτο</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -64,15 +59,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,7 +293,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -311,18 +303,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
